--- a/medicine/Enfance/Papelucho/Papelucho.xlsx
+++ b/medicine/Enfance/Papelucho/Papelucho.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Papelucho est un personnage de fiction de la littérature jeunesse créé par l'auteur chilienne Marcela Paz. Il apparait dans une douzaine d'albums narrant sous la forme d'un journal les aventures d'un enfant chilien âgé de huit ans, inspirées de la propre enfance de l'auteur. Extrêmement populaires au Chili, certains livres de la série sont devenus des lectures quasiment obligatoires dans les écoles.
@@ -512,7 +524,9 @@
           <t>Livres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1947 : Papelucho
 1951 : Papelucho casi huérfano (Papelucho presque orphelin)
@@ -553,12 +567,14 @@
           <t>Traductions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le premier tome de Papelucho est traduit en français dès l'année de sa sortie, en 1951, par G. Tyl-Cambier et paraît dans la collection Rouge et Bleue aux éditions G.P.. Le premier tirage de 25 000 exemplaires se vend rapidement et un nouvel album parait deux ans plus tard. De nouvelles traductions paraissent à partir des années 80 et jusque dans les années 90 chez Bordas puis chez Pocket.
-1980 : Papelucho, traduit par Jean-Paul Duviols, illustrations de Morgan[1]
-1997 : Papelucho, traduit par Jean-Paul Duviols, illustrations de Yola[2]
-2000 : Papelucho, drôle de zozo, traduit par Jean-Paul Duviols[3]</t>
+1980 : Papelucho, traduit par Jean-Paul Duviols, illustrations de Morgan
+1997 : Papelucho, traduit par Jean-Paul Duviols, illustrations de Yola
+2000 : Papelucho, drôle de zozo, traduit par Jean-Paul Duviols</t>
         </is>
       </c>
     </row>
@@ -586,9 +602,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1968 : (international) « Honor List »[4], de l' IBBY, pour Papelucho misionero
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1968 : (international) « Honor List », de l' IBBY, pour Papelucho misionero
 1982 : Prix national de Littérature pour son auteur Marcela Paz, pour cette série jeunesse Papelucho</t>
         </is>
       </c>
@@ -617,9 +635,11 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une adaptation en film de Papelucho et le martien sort au cinéma en 2007[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une adaptation en film de Papelucho et le martien sort au cinéma en 2007.
 </t>
         </is>
       </c>
